--- a/Invoice_jpn1.xlsx
+++ b/Invoice_jpn1.xlsx
@@ -1,144 +1,156 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Robots\Robot3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="3975"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="3975" firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="0"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <t>FKAR211307968617</t>
-  </si>
-  <si>
-    <t>1565.0</t>
-  </si>
-  <si>
-    <t>2022-12-01</t>
-  </si>
-  <si>
-    <t>vindhyavasiniPG,H.no559Mamura, Sector-66,Galino.2/11RK公立学校近くGAUTAMBUDDHA 201301</t>
-  </si>
-  <si>
-    <t>22IF5N8B00032780</t>
-  </si>
-  <si>
-    <t>149.97</t>
-  </si>
-  <si>
-    <t>20202022-11</t>
-  </si>
-  <si>
-    <t>:PlotH-1A/14,GroundFloorAndBasement,Sector63,Noida</t>
-  </si>
-  <si>
-    <t>LKO1-2440918</t>
-  </si>
-  <si>
-    <t>1548.00</t>
-  </si>
-  <si>
-    <t>2022-10-01</t>
-  </si>
-  <si>
-    <t>ラクナウ、ウッタルプラデーシュ州、226401</t>
-  </si>
-  <si>
-    <t>46.75</t>
-  </si>
-  <si>
-    <t>0130253080700006</t>
-  </si>
-  <si>
-    <t>31.50</t>
-  </si>
-  <si>
-    <t>A-26 ウ ッ タ ル プ ラ デ ー シ ュ 州 201307 、 イ ン ド</t>
-  </si>
-  <si>
-    <t>FAIVH〒2300013226</t>
-  </si>
-  <si>
-    <t>2022-10</t>
-  </si>
-  <si>
-    <t>REGM-17402</t>
-  </si>
-  <si>
-    <t>2699.00</t>
-  </si>
-  <si>
-    <t>2022-09-27</t>
-  </si>
-  <si>
-    <t>KhasraNo.130121821920 23,13125,RewariRoad, PataudiGurgaon,Haryana,122503IN</t>
-  </si>
-  <si>
-    <t>2022-09-30</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <x:si>
+    <x:t>FKAR211307968617</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1565.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-12-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vindhyavasiniPG,H.no559Mamura, Sector-66,Galino.2/11RK公立学校近くGAUTAMBUDDHA 201301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22IF5N8B00032780</x:t>
+  </x:si>
+  <x:si>
+    <x:t>149.97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20202022-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>:PlotH-1A/14,GroundFloorAndBasement,Sector63,Noida</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LKO1-2440918</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1548.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-10-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ラクナウ、ウッタルプラデーシュ州、226401</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46.75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0130253080700006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A-26 ウ ッ タ ル プ ラ デ ー シ ュ 州 201307 、 イ ン ド</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAIVH〒2300013226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REGM-17402</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2699.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-09-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KhasraNo.130121821920 23,13125,RewariRoad, PataudiGurgaon,Haryana,122503IN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-09-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FN2172306553</x:t>
+  </x:si>
+  <x:si>
+    <x:t>405-2120603-8434749</x:t>
+  </x:si>
+  <x:si>
+    <x:t>408-5321492-8086740</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="1" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+  </x:cellStyleXfs>
+  <x:cellXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,114 +437,315 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D8"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="E10" sqref="E10"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="19" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="7.570312" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="11.710938" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="91.140625" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="9" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="B4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A8" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="A9" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="A11" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="A12" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="A14" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="A15" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="A16" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6">
+      <x:c r="B17" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6">
+      <x:c r="B18" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="A19" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="A20" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="A21" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:6">
+      <x:c r="A22" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:6">
+      <x:c r="A23" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:6">
+      <x:c r="A24" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>